--- a/Power BI Dashboard Data.xlsx
+++ b/Power BI Dashboard Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://peoplestronghrservices-my.sharepoint.com/personal/rishab_jha_taggd_in/Documents/Desktop/Adani Cements/Jul'25/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1340" documentId="8_{F1BBBB7F-47AE-4CE6-A18B-5A5C84E2A5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE173F2-7152-4A16-9404-38A1089B2942}"/>
+  <xr:revisionPtr revIDLastSave="1353" documentId="8_{F1BBBB7F-47AE-4CE6-A18B-5A5C84E2A5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E8580BF-AD83-4E8D-8822-E78EB562C436}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{209BDCAE-15BA-4B15-8BF8-E4A28D2CEB45}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5373" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5376" uniqueCount="88">
   <si>
     <t>Client</t>
   </si>
@@ -400,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,6 +431,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9049,10 +9052,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C53DFA-81F7-47CF-9345-E8C8EF0158AC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:J639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9101,7 +9105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -9133,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -9165,7 +9169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -9197,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
@@ -9229,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -9261,7 +9265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -9325,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
@@ -9357,7 +9361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -9389,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
@@ -9421,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -9453,7 +9457,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -9485,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
@@ -9517,7 +9521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
@@ -9549,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
@@ -9581,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
@@ -9613,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
@@ -9645,7 +9649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
@@ -9677,7 +9681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
@@ -9709,7 +9713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
@@ -9741,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
@@ -9773,7 +9777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
@@ -9805,7 +9809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -9837,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
@@ -9869,7 +9873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
@@ -9901,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -9933,7 +9937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
@@ -9965,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
@@ -9997,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
@@ -10029,7 +10033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
@@ -10061,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>35</v>
       </c>
@@ -10093,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>35</v>
       </c>
@@ -10125,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
@@ -10157,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
@@ -10189,7 +10193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>35</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -10253,7 +10257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>35</v>
       </c>
@@ -10285,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
@@ -10317,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>35</v>
       </c>
@@ -10349,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>35</v>
       </c>
@@ -10381,7 +10385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>35</v>
       </c>
@@ -10413,7 +10417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>35</v>
       </c>
@@ -10445,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>35</v>
       </c>
@@ -10477,7 +10481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>35</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>35</v>
       </c>
@@ -10541,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>35</v>
       </c>
@@ -10573,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>35</v>
       </c>
@@ -10605,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>35</v>
       </c>
@@ -10637,7 +10641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>35</v>
       </c>
@@ -10669,7 +10673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>35</v>
       </c>
@@ -10701,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>35</v>
       </c>
@@ -10733,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>35</v>
       </c>
@@ -10765,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>35</v>
       </c>
@@ -10797,7 +10801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>35</v>
       </c>
@@ -10829,7 +10833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>35</v>
       </c>
@@ -10861,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>35</v>
       </c>
@@ -10893,7 +10897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>35</v>
       </c>
@@ -10925,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>35</v>
       </c>
@@ -10957,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>35</v>
       </c>
@@ -10989,7 +10993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>35</v>
       </c>
@@ -11021,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>35</v>
       </c>
@@ -11053,7 +11057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>35</v>
       </c>
@@ -11085,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>35</v>
       </c>
@@ -11117,7 +11121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>35</v>
       </c>
@@ -11149,7 +11153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>35</v>
       </c>
@@ -11181,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>35</v>
       </c>
@@ -11213,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>35</v>
       </c>
@@ -11245,7 +11249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>35</v>
       </c>
@@ -11277,7 +11281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>35</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>35</v>
       </c>
@@ -11341,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>35</v>
       </c>
@@ -11373,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>35</v>
       </c>
@@ -11405,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>35</v>
       </c>
@@ -11437,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>35</v>
       </c>
@@ -11469,7 +11473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>35</v>
       </c>
@@ -11501,7 +11505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>35</v>
       </c>
@@ -11533,7 +11537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>35</v>
       </c>
@@ -11565,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>35</v>
       </c>
@@ -11597,7 +11601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>35</v>
       </c>
@@ -11629,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>35</v>
       </c>
@@ -11661,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>35</v>
       </c>
@@ -11693,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>35</v>
       </c>
@@ -11725,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>35</v>
       </c>
@@ -11757,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>35</v>
       </c>
@@ -11789,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>35</v>
       </c>
@@ -11821,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>35</v>
       </c>
@@ -11853,7 +11857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>35</v>
       </c>
@@ -11885,7 +11889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>35</v>
       </c>
@@ -11917,7 +11921,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>35</v>
       </c>
@@ -11949,7 +11953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>35</v>
       </c>
@@ -11981,7 +11985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>35</v>
       </c>
@@ -12013,7 +12017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>35</v>
       </c>
@@ -12045,7 +12049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>35</v>
       </c>
@@ -12077,7 +12081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>35</v>
       </c>
@@ -12109,7 +12113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>35</v>
       </c>
@@ -12141,7 +12145,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>35</v>
       </c>
@@ -12173,7 +12177,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>35</v>
       </c>
@@ -12205,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>35</v>
       </c>
@@ -12237,7 +12241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>35</v>
       </c>
@@ -12269,7 +12273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>35</v>
       </c>
@@ -12301,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>35</v>
       </c>
@@ -12333,7 +12337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>35</v>
       </c>
@@ -12365,7 +12369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>35</v>
       </c>
@@ -12397,7 +12401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>35</v>
       </c>
@@ -12429,7 +12433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>35</v>
       </c>
@@ -12461,7 +12465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>35</v>
       </c>
@@ -12493,7 +12497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>35</v>
       </c>
@@ -12525,7 +12529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>35</v>
       </c>
@@ -12557,7 +12561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>35</v>
       </c>
@@ -12589,7 +12593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>35</v>
       </c>
@@ -12621,7 +12625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>35</v>
       </c>
@@ -12653,7 +12657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>35</v>
       </c>
@@ -12685,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>35</v>
       </c>
@@ -12717,7 +12721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>35</v>
       </c>
@@ -12749,7 +12753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>35</v>
       </c>
@@ -12781,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>35</v>
       </c>
@@ -12813,7 +12817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>35</v>
       </c>
@@ -12845,7 +12849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>35</v>
       </c>
@@ -12877,7 +12881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>35</v>
       </c>
@@ -12909,7 +12913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>35</v>
       </c>
@@ -12941,7 +12945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>35</v>
       </c>
@@ -12973,7 +12977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>35</v>
       </c>
@@ -13005,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>35</v>
       </c>
@@ -13037,7 +13041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>35</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>35</v>
       </c>
@@ -13101,7 +13105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>35</v>
       </c>
@@ -13133,7 +13137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>35</v>
       </c>
@@ -13165,7 +13169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>35</v>
       </c>
@@ -13197,7 +13201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>35</v>
       </c>
@@ -13229,7 +13233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>35</v>
       </c>
@@ -13261,7 +13265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>35</v>
       </c>
@@ -13293,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>35</v>
       </c>
@@ -13325,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>35</v>
       </c>
@@ -13357,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>35</v>
       </c>
@@ -13389,7 +13393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>35</v>
       </c>
@@ -13421,7 +13425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>35</v>
       </c>
@@ -13453,7 +13457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>35</v>
       </c>
@@ -13485,7 +13489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>35</v>
       </c>
@@ -13517,7 +13521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>35</v>
       </c>
@@ -13549,7 +13553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>35</v>
       </c>
@@ -13581,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>35</v>
       </c>
@@ -13613,7 +13617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>35</v>
       </c>
@@ -13645,7 +13649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>35</v>
       </c>
@@ -13677,7 +13681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>35</v>
       </c>
@@ -13709,7 +13713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>35</v>
       </c>
@@ -13741,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>35</v>
       </c>
@@ -13773,7 +13777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>35</v>
       </c>
@@ -13805,7 +13809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>35</v>
       </c>
@@ -13837,7 +13841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>35</v>
       </c>
@@ -13869,7 +13873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>35</v>
       </c>
@@ -13901,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>35</v>
       </c>
@@ -13933,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>35</v>
       </c>
@@ -13965,7 +13969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>35</v>
       </c>
@@ -13997,7 +14001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>35</v>
       </c>
@@ -14029,7 +14033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>35</v>
       </c>
@@ -14061,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>35</v>
       </c>
@@ -14093,7 +14097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>35</v>
       </c>
@@ -14125,7 +14129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>35</v>
       </c>
@@ -14157,7 +14161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>35</v>
       </c>
@@ -14189,7 +14193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>35</v>
       </c>
@@ -14221,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>35</v>
       </c>
@@ -14253,7 +14257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>35</v>
       </c>
@@ -14285,7 +14289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>35</v>
       </c>
@@ -14317,7 +14321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>35</v>
       </c>
@@ -14349,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>35</v>
       </c>
@@ -14381,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>35</v>
       </c>
@@ -14413,7 +14417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>35</v>
       </c>
@@ -14445,7 +14449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>35</v>
       </c>
@@ -14477,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>35</v>
       </c>
@@ -14509,7 +14513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>35</v>
       </c>
@@ -14541,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>35</v>
       </c>
@@ -14573,7 +14577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>35</v>
       </c>
@@ -14605,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>35</v>
       </c>
@@ -14637,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>35</v>
       </c>
@@ -14669,7 +14673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>35</v>
       </c>
@@ -14701,7 +14705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>35</v>
       </c>
@@ -14733,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>35</v>
       </c>
@@ -14765,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>35</v>
       </c>
@@ -14797,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>35</v>
       </c>
@@ -14829,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>35</v>
       </c>
@@ -14861,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>35</v>
       </c>
@@ -14893,7 +14897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>35</v>
       </c>
@@ -14925,7 +14929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>35</v>
       </c>
@@ -14957,7 +14961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>35</v>
       </c>
@@ -14989,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>35</v>
       </c>
@@ -15021,7 +15025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>35</v>
       </c>
@@ -15053,7 +15057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>35</v>
       </c>
@@ -15085,7 +15089,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>35</v>
       </c>
@@ -15117,7 +15121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>35</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>35</v>
       </c>
@@ -15181,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>35</v>
       </c>
@@ -15213,7 +15217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>35</v>
       </c>
@@ -15245,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>35</v>
       </c>
@@ -15277,7 +15281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>35</v>
       </c>
@@ -15309,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>35</v>
       </c>
@@ -15341,7 +15345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>35</v>
       </c>
@@ -15373,7 +15377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>35</v>
       </c>
@@ -15405,7 +15409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>35</v>
       </c>
@@ -15437,7 +15441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>35</v>
       </c>
@@ -15469,7 +15473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>35</v>
       </c>
@@ -15501,7 +15505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>35</v>
       </c>
@@ -15533,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>35</v>
       </c>
@@ -15565,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>35</v>
       </c>
@@ -15597,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>35</v>
       </c>
@@ -15629,7 +15633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>35</v>
       </c>
@@ -15661,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>35</v>
       </c>
@@ -15693,7 +15697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>35</v>
       </c>
@@ -15725,7 +15729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>35</v>
       </c>
@@ -15757,7 +15761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>35</v>
       </c>
@@ -15789,7 +15793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>35</v>
       </c>
@@ -15821,7 +15825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>35</v>
       </c>
@@ -15853,7 +15857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>35</v>
       </c>
@@ -15885,7 +15889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>35</v>
       </c>
@@ -15917,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>35</v>
       </c>
@@ -15949,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>35</v>
       </c>
@@ -15981,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>35</v>
       </c>
@@ -16013,7 +16017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>35</v>
       </c>
@@ -16045,7 +16049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>35</v>
       </c>
@@ -16077,7 +16081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
         <v>35</v>
       </c>
@@ -16109,7 +16113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>35</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>35</v>
       </c>
@@ -16173,7 +16177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>35</v>
       </c>
@@ -16205,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>35</v>
       </c>
@@ -16237,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
         <v>35</v>
       </c>
@@ -16269,7 +16273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>35</v>
       </c>
@@ -16301,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>35</v>
       </c>
@@ -16333,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>35</v>
       </c>
@@ -16365,7 +16369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>35</v>
       </c>
@@ -16397,7 +16401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>35</v>
       </c>
@@ -16429,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>35</v>
       </c>
@@ -16461,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>35</v>
       </c>
@@ -16493,7 +16497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>35</v>
       </c>
@@ -16525,7 +16529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>35</v>
       </c>
@@ -16557,7 +16561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>35</v>
       </c>
@@ -16589,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>35</v>
       </c>
@@ -16621,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>35</v>
       </c>
@@ -16653,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>35</v>
       </c>
@@ -16685,7 +16689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>35</v>
       </c>
@@ -16717,7 +16721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>35</v>
       </c>
@@ -16749,7 +16753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>35</v>
       </c>
@@ -16781,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>35</v>
       </c>
@@ -16813,7 +16817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>35</v>
       </c>
@@ -16845,7 +16849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>35</v>
       </c>
@@ -16877,7 +16881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>35</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>35</v>
       </c>
@@ -16941,7 +16945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>35</v>
       </c>
@@ -16973,7 +16977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>35</v>
       </c>
@@ -17005,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
         <v>35</v>
       </c>
@@ -17037,7 +17041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>35</v>
       </c>
@@ -17069,7 +17073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
         <v>35</v>
       </c>
@@ -17101,7 +17105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>35</v>
       </c>
@@ -17133,7 +17137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>35</v>
       </c>
@@ -17165,7 +17169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>35</v>
       </c>
@@ -17197,7 +17201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>35</v>
       </c>
@@ -17229,7 +17233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>35</v>
       </c>
@@ -17261,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>35</v>
       </c>
@@ -17293,7 +17297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>35</v>
       </c>
@@ -17325,7 +17329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>35</v>
       </c>
@@ -17357,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>35</v>
       </c>
@@ -17389,7 +17393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>35</v>
       </c>
@@ -17421,7 +17425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>35</v>
       </c>
@@ -17453,7 +17457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
         <v>35</v>
       </c>
@@ -17485,7 +17489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>35</v>
       </c>
@@ -17517,7 +17521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>35</v>
       </c>
@@ -17549,7 +17553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>35</v>
       </c>
@@ -17581,7 +17585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
         <v>35</v>
       </c>
@@ -17613,7 +17617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
         <v>35</v>
       </c>
@@ -17645,7 +17649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
         <v>35</v>
       </c>
@@ -17677,7 +17681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
         <v>35</v>
       </c>
@@ -17709,7 +17713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
         <v>35</v>
       </c>
@@ -17741,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
         <v>35</v>
       </c>
@@ -17773,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
         <v>35</v>
       </c>
@@ -17805,7 +17809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
         <v>35</v>
       </c>
@@ -17837,7 +17841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
         <v>35</v>
       </c>
@@ -17869,7 +17873,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
         <v>35</v>
       </c>
@@ -17901,7 +17905,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
         <v>35</v>
       </c>
@@ -17933,7 +17937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
         <v>35</v>
       </c>
@@ -17965,7 +17969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
         <v>35</v>
       </c>
@@ -17997,7 +18001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
         <v>35</v>
       </c>
@@ -18029,7 +18033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8" t="s">
         <v>35</v>
       </c>
@@ -18061,7 +18065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>35</v>
       </c>
@@ -18093,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>35</v>
       </c>
@@ -18125,7 +18129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
         <v>35</v>
       </c>
@@ -18157,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>35</v>
       </c>
@@ -18189,7 +18193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="s">
         <v>35</v>
       </c>
@@ -18221,7 +18225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8" t="s">
         <v>35</v>
       </c>
@@ -18253,7 +18257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="s">
         <v>35</v>
       </c>
@@ -18285,7 +18289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8" t="s">
         <v>35</v>
       </c>
@@ -18317,7 +18321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="s">
         <v>35</v>
       </c>
@@ -18349,7 +18353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8" t="s">
         <v>35</v>
       </c>
@@ -18381,7 +18385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
         <v>35</v>
       </c>
@@ -18413,7 +18417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>35</v>
       </c>
@@ -18445,7 +18449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>35</v>
       </c>
@@ -18477,7 +18481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>35</v>
       </c>
@@ -18509,7 +18513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
         <v>35</v>
       </c>
@@ -18541,7 +18545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
         <v>35</v>
       </c>
@@ -18573,7 +18577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
         <v>35</v>
       </c>
@@ -18605,7 +18609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
         <v>35</v>
       </c>
@@ -18637,7 +18641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
         <v>35</v>
       </c>
@@ -18669,7 +18673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8" t="s">
         <v>35</v>
       </c>
@@ -18701,7 +18705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
         <v>35</v>
       </c>
@@ -18733,7 +18737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>35</v>
       </c>
@@ -18765,7 +18769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
         <v>35</v>
       </c>
@@ -18797,7 +18801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>35</v>
       </c>
@@ -18829,7 +18833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>35</v>
       </c>
@@ -18861,7 +18865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="8" t="s">
         <v>35</v>
       </c>
@@ -18893,7 +18897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
         <v>35</v>
       </c>
@@ -18925,7 +18929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>35</v>
       </c>
@@ -18957,7 +18961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>35</v>
       </c>
@@ -18989,7 +18993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
         <v>35</v>
       </c>
@@ -19021,7 +19025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
         <v>35</v>
       </c>
@@ -19053,7 +19057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
         <v>35</v>
       </c>
@@ -19085,7 +19089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
         <v>35</v>
       </c>
@@ -19117,7 +19121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>35</v>
       </c>
@@ -19149,7 +19153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>35</v>
       </c>
@@ -19181,7 +19185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="8" t="s">
         <v>35</v>
       </c>
@@ -19213,7 +19217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="s">
         <v>35</v>
       </c>
@@ -19245,7 +19249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>35</v>
       </c>
@@ -19277,7 +19281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>35</v>
       </c>
@@ -19309,7 +19313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>35</v>
       </c>
@@ -19341,7 +19345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>35</v>
       </c>
@@ -19373,7 +19377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="8" t="s">
         <v>35</v>
       </c>
@@ -19405,7 +19409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>35</v>
       </c>
@@ -19437,7 +19441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>35</v>
       </c>
@@ -19469,7 +19473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>35</v>
       </c>
@@ -19501,7 +19505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>35</v>
       </c>
@@ -19533,7 +19537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>35</v>
       </c>
@@ -19565,7 +19569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>35</v>
       </c>
@@ -19597,7 +19601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>35</v>
       </c>
@@ -19629,7 +19633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>35</v>
       </c>
@@ -19661,7 +19665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>35</v>
       </c>
@@ -19693,7 +19697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="8" t="s">
         <v>35</v>
       </c>
@@ -19725,7 +19729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>35</v>
       </c>
@@ -19757,7 +19761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
         <v>35</v>
       </c>
@@ -19789,7 +19793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>35</v>
       </c>
@@ -19821,7 +19825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>35</v>
       </c>
@@ -19853,7 +19857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>35</v>
       </c>
@@ -19885,7 +19889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>35</v>
       </c>
@@ -19917,7 +19921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>35</v>
       </c>
@@ -19949,7 +19953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
         <v>35</v>
       </c>
@@ -19981,7 +19985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
         <v>35</v>
       </c>
@@ -20013,7 +20017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="8" t="s">
         <v>35</v>
       </c>
@@ -20045,7 +20049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
         <v>35</v>
       </c>
@@ -20077,7 +20081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
         <v>35</v>
       </c>
@@ -20109,7 +20113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
         <v>35</v>
       </c>
@@ -20141,7 +20145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="8" t="s">
         <v>35</v>
       </c>
@@ -20173,7 +20177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>35</v>
       </c>
@@ -20205,7 +20209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
         <v>35</v>
       </c>
@@ -20237,7 +20241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
         <v>35</v>
       </c>
@@ -20269,7 +20273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
         <v>35</v>
       </c>
@@ -20301,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
         <v>35</v>
       </c>
@@ -20333,7 +20337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
         <v>35</v>
       </c>
@@ -20365,7 +20369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="s">
         <v>35</v>
       </c>
@@ -20397,7 +20401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="8" t="s">
         <v>35</v>
       </c>
@@ -20429,7 +20433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
         <v>35</v>
       </c>
@@ -20461,7 +20465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="8" t="s">
         <v>35</v>
       </c>
@@ -20493,7 +20497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
         <v>35</v>
       </c>
@@ -20525,7 +20529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
         <v>35</v>
       </c>
@@ -20557,7 +20561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
         <v>35</v>
       </c>
@@ -20589,7 +20593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
         <v>35</v>
       </c>
@@ -20621,7 +20625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
         <v>35</v>
       </c>
@@ -20653,7 +20657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="8" t="s">
         <v>35</v>
       </c>
@@ -20685,7 +20689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="s">
         <v>35</v>
       </c>
@@ -20717,7 +20721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
         <v>35</v>
       </c>
@@ -20749,7 +20753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="s">
         <v>35</v>
       </c>
@@ -20781,7 +20785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="8" t="s">
         <v>35</v>
       </c>
@@ -20813,7 +20817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="s">
         <v>35</v>
       </c>
@@ -20845,7 +20849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
         <v>35</v>
       </c>
@@ -20877,7 +20881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
         <v>35</v>
       </c>
@@ -20909,7 +20913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="8" t="s">
         <v>35</v>
       </c>
@@ -20941,7 +20945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="s">
         <v>35</v>
       </c>
@@ -20973,7 +20977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="8" t="s">
         <v>35</v>
       </c>
@@ -21005,7 +21009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="s">
         <v>35</v>
       </c>
@@ -21037,7 +21041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
         <v>35</v>
       </c>
@@ -21069,7 +21073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="s">
         <v>35</v>
       </c>
@@ -21101,7 +21105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="8" t="s">
         <v>35</v>
       </c>
@@ -21133,7 +21137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="s">
         <v>35</v>
       </c>
@@ -21165,7 +21169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="8" t="s">
         <v>35</v>
       </c>
@@ -21197,7 +21201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="s">
         <v>35</v>
       </c>
@@ -21229,7 +21233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="8" t="s">
         <v>35</v>
       </c>
@@ -21261,7 +21265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="s">
         <v>35</v>
       </c>
@@ -21293,7 +21297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
         <v>35</v>
       </c>
@@ -21325,7 +21329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
         <v>35</v>
       </c>
@@ -21357,7 +21361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="8" t="s">
         <v>35</v>
       </c>
@@ -21389,7 +21393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
         <v>35</v>
       </c>
@@ -21421,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
         <v>35</v>
       </c>
@@ -21453,7 +21457,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
         <v>35</v>
       </c>
@@ -21485,7 +21489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="8" t="s">
         <v>35</v>
       </c>
@@ -21517,7 +21521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="s">
         <v>35</v>
       </c>
@@ -21549,7 +21553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="8" t="s">
         <v>35</v>
       </c>
@@ -21581,7 +21585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
         <v>35</v>
       </c>
@@ -21613,7 +21617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="8" t="s">
         <v>35</v>
       </c>
@@ -21645,7 +21649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="s">
         <v>35</v>
       </c>
@@ -21677,7 +21681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="8" t="s">
         <v>35</v>
       </c>
@@ -21709,7 +21713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="s">
         <v>35</v>
       </c>
@@ -21741,7 +21745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="8" t="s">
         <v>35</v>
       </c>
@@ -21773,7 +21777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="s">
         <v>35</v>
       </c>
@@ -21805,7 +21809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="8" t="s">
         <v>35</v>
       </c>
@@ -21837,7 +21841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="s">
         <v>35</v>
       </c>
@@ -21869,7 +21873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="8" t="s">
         <v>35</v>
       </c>
@@ -21901,7 +21905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="s">
         <v>35</v>
       </c>
@@ -21933,7 +21937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="8" t="s">
         <v>35</v>
       </c>
@@ -21965,7 +21969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="s">
         <v>35</v>
       </c>
@@ -21997,7 +22001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="8" t="s">
         <v>35</v>
       </c>
@@ -22029,7 +22033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="s">
         <v>35</v>
       </c>
@@ -22061,7 +22065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="8" t="s">
         <v>35</v>
       </c>
@@ -22093,7 +22097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="s">
         <v>35</v>
       </c>
@@ -22125,7 +22129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="8" t="s">
         <v>35</v>
       </c>
@@ -22157,7 +22161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="8" t="s">
         <v>35</v>
       </c>
@@ -22189,7 +22193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="8" t="s">
         <v>35</v>
       </c>
@@ -22221,7 +22225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="s">
         <v>35</v>
       </c>
@@ -22253,7 +22257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="8" t="s">
         <v>35</v>
       </c>
@@ -22285,7 +22289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="s">
         <v>35</v>
       </c>
@@ -22317,7 +22321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="8" t="s">
         <v>35</v>
       </c>
@@ -22349,7 +22353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="8" t="s">
         <v>35</v>
       </c>
@@ -22381,7 +22385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="8" t="s">
         <v>35</v>
       </c>
@@ -22413,7 +22417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="8" t="s">
         <v>35</v>
       </c>
@@ -22445,7 +22449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="8" t="s">
         <v>35</v>
       </c>
@@ -22477,7 +22481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="8" t="s">
         <v>35</v>
       </c>
@@ -22509,7 +22513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="8" t="s">
         <v>35</v>
       </c>
@@ -22541,7 +22545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="s">
         <v>35</v>
       </c>
@@ -22573,7 +22577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="8" t="s">
         <v>35</v>
       </c>
@@ -22605,7 +22609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="8" t="s">
         <v>35</v>
       </c>
@@ -22637,7 +22641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="8" t="s">
         <v>35</v>
       </c>
@@ -22669,7 +22673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="8" t="s">
         <v>35</v>
       </c>
@@ -22701,7 +22705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="8" t="s">
         <v>35</v>
       </c>
@@ -22733,7 +22737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="8" t="s">
         <v>35</v>
       </c>
@@ -22765,7 +22769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="8" t="s">
         <v>35</v>
       </c>
@@ -22797,7 +22801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="s">
         <v>35</v>
       </c>
@@ -22829,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="8" t="s">
         <v>35</v>
       </c>
@@ -22861,7 +22865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="8" t="s">
         <v>35</v>
       </c>
@@ -22893,7 +22897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="8" t="s">
         <v>35</v>
       </c>
@@ -22925,7 +22929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="8" t="s">
         <v>35</v>
       </c>
@@ -22957,7 +22961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="8" t="s">
         <v>35</v>
       </c>
@@ -22989,7 +22993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="8" t="s">
         <v>35</v>
       </c>
@@ -23021,7 +23025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="8" t="s">
         <v>35</v>
       </c>
@@ -23053,7 +23057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="8" t="s">
         <v>35</v>
       </c>
@@ -23085,7 +23089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="8" t="s">
         <v>35</v>
       </c>
@@ -23117,7 +23121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="s">
         <v>35</v>
       </c>
@@ -23149,7 +23153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="8" t="s">
         <v>35</v>
       </c>
@@ -23181,7 +23185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="8" t="s">
         <v>35</v>
       </c>
@@ -23213,7 +23217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="8" t="s">
         <v>35</v>
       </c>
@@ -23245,7 +23249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="8" t="s">
         <v>35</v>
       </c>
@@ -23277,7 +23281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="8" t="s">
         <v>35</v>
       </c>
@@ -23309,7 +23313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="8" t="s">
         <v>35</v>
       </c>
@@ -23341,7 +23345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="8" t="s">
         <v>35</v>
       </c>
@@ -23373,7 +23377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="s">
         <v>35</v>
       </c>
@@ -23405,7 +23409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="8" t="s">
         <v>35</v>
       </c>
@@ -23437,7 +23441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="8" t="s">
         <v>35</v>
       </c>
@@ -23469,7 +23473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="8" t="s">
         <v>35</v>
       </c>
@@ -23501,7 +23505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="s">
         <v>35</v>
       </c>
@@ -23533,7 +23537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="8" t="s">
         <v>35</v>
       </c>
@@ -23565,7 +23569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="s">
         <v>35</v>
       </c>
@@ -23597,7 +23601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="8" t="s">
         <v>35</v>
       </c>
@@ -23629,7 +23633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="8" t="s">
         <v>35</v>
       </c>
@@ -23661,7 +23665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="8" t="s">
         <v>35</v>
       </c>
@@ -23693,7 +23697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="8" t="s">
         <v>35</v>
       </c>
@@ -23725,7 +23729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="8" t="s">
         <v>35</v>
       </c>
@@ -23757,7 +23761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="8" t="s">
         <v>35</v>
       </c>
@@ -23789,7 +23793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="8" t="s">
         <v>35</v>
       </c>
@@ -23821,7 +23825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="s">
         <v>35</v>
       </c>
@@ -23853,7 +23857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="8" t="s">
         <v>35</v>
       </c>
@@ -23885,7 +23889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="8" t="s">
         <v>35</v>
       </c>
@@ -23917,7 +23921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="8" t="s">
         <v>35</v>
       </c>
@@ -23949,7 +23953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="s">
         <v>35</v>
       </c>
@@ -23981,7 +23985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="8" t="s">
         <v>35</v>
       </c>
@@ -24013,7 +24017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="s">
         <v>35</v>
       </c>
@@ -24045,7 +24049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="8" t="s">
         <v>35</v>
       </c>
@@ -24077,7 +24081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="s">
         <v>35</v>
       </c>
@@ -24109,7 +24113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="8" t="s">
         <v>35</v>
       </c>
@@ -24141,7 +24145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="s">
         <v>35</v>
       </c>
@@ -24173,7 +24177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="8" t="s">
         <v>35</v>
       </c>
@@ -24205,7 +24209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="s">
         <v>35</v>
       </c>
@@ -24237,7 +24241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="8" t="s">
         <v>35</v>
       </c>
@@ -24269,7 +24273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="s">
         <v>35</v>
       </c>
@@ -24301,7 +24305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="8" t="s">
         <v>35</v>
       </c>
@@ -24333,7 +24337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="s">
         <v>35</v>
       </c>
@@ -24365,7 +24369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="8" t="s">
         <v>35</v>
       </c>
@@ -24397,7 +24401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="8" t="s">
         <v>35</v>
       </c>
@@ -24429,7 +24433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="8" t="s">
         <v>35</v>
       </c>
@@ -24461,7 +24465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="s">
         <v>35</v>
       </c>
@@ -24493,7 +24497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="8" t="s">
         <v>35</v>
       </c>
@@ -24525,7 +24529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="s">
         <v>35</v>
       </c>
@@ -24557,7 +24561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="8" t="s">
         <v>35</v>
       </c>
@@ -24590,7 +24594,7 @@
       </c>
       <c r="L485" s="10"/>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="s">
         <v>35</v>
       </c>
@@ -24622,7 +24626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="8" t="s">
         <v>35</v>
       </c>
@@ -24654,7 +24658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="s">
         <v>35</v>
       </c>
@@ -24686,7 +24690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="8" t="s">
         <v>35</v>
       </c>
@@ -24718,7 +24722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="s">
         <v>35</v>
       </c>
@@ -24750,7 +24754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="8" t="s">
         <v>35</v>
       </c>
@@ -24782,7 +24786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="s">
         <v>35</v>
       </c>
@@ -24814,7 +24818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="8" t="s">
         <v>35</v>
       </c>
@@ -24846,7 +24850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="s">
         <v>35</v>
       </c>
@@ -24878,7 +24882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="8" t="s">
         <v>35</v>
       </c>
@@ -24910,7 +24914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="s">
         <v>35</v>
       </c>
@@ -24942,7 +24946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="8" t="s">
         <v>35</v>
       </c>
@@ -24974,7 +24978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="8" t="s">
         <v>35</v>
       </c>
@@ -25006,7 +25010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="8" t="s">
         <v>35</v>
       </c>
@@ -25038,7 +25042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="8" t="s">
         <v>35</v>
       </c>
@@ -25070,7 +25074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="8" t="s">
         <v>35</v>
       </c>
@@ -25102,7 +25106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="s">
         <v>35</v>
       </c>
@@ -25134,7 +25138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="8" t="s">
         <v>35</v>
       </c>
@@ -25166,7 +25170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="s">
         <v>35</v>
       </c>
@@ -25198,7 +25202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="8" t="s">
         <v>35</v>
       </c>
@@ -25230,7 +25234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="s">
         <v>35</v>
       </c>
@@ -25262,7 +25266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="8" t="s">
         <v>35</v>
       </c>
@@ -25294,7 +25298,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="s">
         <v>35</v>
       </c>
@@ -25326,7 +25330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="8" t="s">
         <v>35</v>
       </c>
@@ -25358,7 +25362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="s">
         <v>35</v>
       </c>
@@ -25390,7 +25394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="8" t="s">
         <v>35</v>
       </c>
@@ -25422,7 +25426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="s">
         <v>35</v>
       </c>
@@ -25454,7 +25458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="8" t="s">
         <v>35</v>
       </c>
@@ -25486,7 +25490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="8" t="s">
         <v>35</v>
       </c>
@@ -25518,7 +25522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="8" t="s">
         <v>35</v>
       </c>
@@ -25550,7 +25554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="8" t="s">
         <v>35</v>
       </c>
@@ -25582,7 +25586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="8" t="s">
         <v>35</v>
       </c>
@@ -25614,7 +25618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="s">
         <v>35</v>
       </c>
@@ -25646,7 +25650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="8" t="s">
         <v>35</v>
       </c>
@@ -25678,7 +25682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="s">
         <v>35</v>
       </c>
@@ -25710,7 +25714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="8" t="s">
         <v>35</v>
       </c>
@@ -25742,7 +25746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="s">
         <v>35</v>
       </c>
@@ -25774,7 +25778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="8" t="s">
         <v>35</v>
       </c>
@@ -25806,7 +25810,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="s">
         <v>35</v>
       </c>
@@ -25838,7 +25842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="8" t="s">
         <v>35</v>
       </c>
@@ -25870,7 +25874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="s">
         <v>35</v>
       </c>
@@ -25902,7 +25906,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="8" t="s">
         <v>35</v>
       </c>
@@ -25934,7 +25938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="s">
         <v>35</v>
       </c>
@@ -25966,7 +25970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="8" t="s">
         <v>35</v>
       </c>
@@ -25998,7 +26002,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="8" t="s">
         <v>35</v>
       </c>
@@ -26030,7 +26034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="8" t="s">
         <v>35</v>
       </c>
@@ -26062,7 +26066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="8" t="s">
         <v>35</v>
       </c>
@@ -26094,7 +26098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="8" t="s">
         <v>35</v>
       </c>
@@ -26126,7 +26130,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="8" t="s">
         <v>35</v>
       </c>
@@ -26158,7 +26162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="8" t="s">
         <v>35</v>
       </c>
@@ -26190,7 +26194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="8" t="s">
         <v>35</v>
       </c>
@@ -26222,7 +26226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="8" t="s">
         <v>35</v>
       </c>
@@ -26254,7 +26258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="8" t="s">
         <v>35</v>
       </c>
@@ -26286,7 +26290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="8" t="s">
         <v>35</v>
       </c>
@@ -26318,7 +26322,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="8" t="s">
         <v>35</v>
       </c>
@@ -26350,7 +26354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="8" t="s">
         <v>35</v>
       </c>
@@ -26382,7 +26386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="8" t="s">
         <v>35</v>
       </c>
@@ -26414,7 +26418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="8" t="s">
         <v>35</v>
       </c>
@@ -26446,7 +26450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="8" t="s">
         <v>35</v>
       </c>
@@ -26478,7 +26482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="8" t="s">
         <v>35</v>
       </c>
@@ -26510,7 +26514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="8" t="s">
         <v>35</v>
       </c>
@@ -26542,7 +26546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="8" t="s">
         <v>35</v>
       </c>
@@ -26574,7 +26578,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="8" t="s">
         <v>35</v>
       </c>
@@ -26606,7 +26610,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="8" t="s">
         <v>35</v>
       </c>
@@ -26638,7 +26642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="8" t="s">
         <v>35</v>
       </c>
@@ -26670,7 +26674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="8" t="s">
         <v>35</v>
       </c>
@@ -26702,7 +26706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="8" t="s">
         <v>35</v>
       </c>
@@ -26734,7 +26738,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="8" t="s">
         <v>35</v>
       </c>
@@ -26766,7 +26770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="8" t="s">
         <v>35</v>
       </c>
@@ -26798,7 +26802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="8" t="s">
         <v>35</v>
       </c>
@@ -26830,7 +26834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="8" t="s">
         <v>35</v>
       </c>
@@ -26862,7 +26866,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="8" t="s">
         <v>35</v>
       </c>
@@ -26894,7 +26898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="8" t="s">
         <v>35</v>
       </c>
@@ -26926,7 +26930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="8" t="s">
         <v>35</v>
       </c>
@@ -26958,7 +26962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="8" t="s">
         <v>35</v>
       </c>
@@ -26990,7 +26994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="8" t="s">
         <v>35</v>
       </c>
@@ -27022,7 +27026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="8" t="s">
         <v>35</v>
       </c>
@@ -27054,7 +27058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="8" t="s">
         <v>35</v>
       </c>
@@ -27086,7 +27090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="8" t="s">
         <v>35</v>
       </c>
@@ -27118,7 +27122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="8" t="s">
         <v>35</v>
       </c>
@@ -27150,7 +27154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="8" t="s">
         <v>35</v>
       </c>
@@ -27182,7 +27186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="8" t="s">
         <v>35</v>
       </c>
@@ -27214,7 +27218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="8" t="s">
         <v>35</v>
       </c>
@@ -27246,7 +27250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="8" t="s">
         <v>35</v>
       </c>
@@ -27278,7 +27282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="8" t="s">
         <v>35</v>
       </c>
@@ -27310,7 +27314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="8" t="s">
         <v>35</v>
       </c>
@@ -27342,7 +27346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="8" t="s">
         <v>35</v>
       </c>
@@ -27374,7 +27378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="8" t="s">
         <v>35</v>
       </c>
@@ -27406,7 +27410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="8" t="s">
         <v>35</v>
       </c>
@@ -27438,7 +27442,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="8" t="s">
         <v>35</v>
       </c>
@@ -27470,7 +27474,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="8" t="s">
         <v>35</v>
       </c>
@@ -27502,7 +27506,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="8" t="s">
         <v>35</v>
       </c>
@@ -27534,7 +27538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="8" t="s">
         <v>35</v>
       </c>
@@ -27566,7 +27570,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="8" t="s">
         <v>35</v>
       </c>
@@ -27598,7 +27602,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="8" t="s">
         <v>35</v>
       </c>
@@ -27630,7 +27634,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="8" t="s">
         <v>35</v>
       </c>
@@ -27662,7 +27666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="8" t="s">
         <v>35</v>
       </c>
@@ -27694,7 +27698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="8" t="s">
         <v>35</v>
       </c>
@@ -27726,7 +27730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="8" t="s">
         <v>35</v>
       </c>
@@ -27758,7 +27762,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="8" t="s">
         <v>35</v>
       </c>
@@ -27790,7 +27794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="8" t="s">
         <v>35</v>
       </c>
@@ -27822,7 +27826,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="8" t="s">
         <v>35</v>
       </c>
@@ -27854,7 +27858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="8" t="s">
         <v>35</v>
       </c>
@@ -27886,7 +27890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="8" t="s">
         <v>35</v>
       </c>
@@ -27918,7 +27922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="8" t="s">
         <v>35</v>
       </c>
@@ -27950,7 +27954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="8" t="s">
         <v>35</v>
       </c>
@@ -27982,7 +27986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="8" t="s">
         <v>35</v>
       </c>
@@ -28014,7 +28018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="8" t="s">
         <v>35</v>
       </c>
@@ -28046,7 +28050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="8" t="s">
         <v>35</v>
       </c>
@@ -28078,7 +28082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="8" t="s">
         <v>35</v>
       </c>
@@ -28110,7 +28114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="8" t="s">
         <v>35</v>
       </c>
@@ -28142,7 +28146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="8" t="s">
         <v>35</v>
       </c>
@@ -28174,7 +28178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="8" t="s">
         <v>35</v>
       </c>
@@ -28260,6 +28264,9 @@
       <c r="G600" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="H600" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I600" s="4" t="s">
         <v>61</v>
       </c>
@@ -28321,6 +28328,9 @@
       <c r="G602" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="H602" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I602" s="4" t="s">
         <v>61</v>
       </c>
@@ -28574,6 +28584,9 @@
       <c r="G610" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="H610" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I610" s="4" t="s">
         <v>67</v>
       </c>
@@ -29510,6 +29523,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J639" xr:uid="{49C53DFA-81F7-47CF-9345-E8C8EF0158AC}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="11"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>